--- a/Available-to-Promise_Report.xlsx
+++ b/Available-to-Promise_Report.xlsx
@@ -37,7 +37,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>4/12/2024</t>
+    <t>6/12/2024</t>
   </si>
   <si>
     <t>Material</t>
@@ -150,15 +150,20 @@
       <sz val="24"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -166,15 +171,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,586 +656,586 @@
       <c r="J7" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I10"/>
-      <c r="J10"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="H21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="H22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="H24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H25" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H26" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="H26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="H27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="H28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="D29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="H29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="D30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="D31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="H31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="H32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>23</v>
       </c>
     </row>
